--- a/MIGRASH_MILON.xlsx
+++ b/MIGRASH_MILON.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="layers" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="107">
   <si>
     <t>PATH</t>
   </si>
@@ -42,235 +42,304 @@
     <t>סביבה</t>
   </si>
   <si>
+    <t>db720.dbo.KD_TG_CHELKOT_BAALUT</t>
+  </si>
+  <si>
+    <t>migrashim</t>
+  </si>
+  <si>
+    <t>raash_45m</t>
+  </si>
+  <si>
+    <t>gushim</t>
+  </si>
+  <si>
+    <t>ktovot</t>
+  </si>
+  <si>
+    <t>baalut_iria</t>
+  </si>
+  <si>
+    <t>db720.dbo.es_tg_raash_45m</t>
+  </si>
+  <si>
+    <t>db720.dbo.kd_tg_chelkot</t>
+  </si>
+  <si>
+    <t>db720.dbo.kt_tg_ktovot</t>
+  </si>
+  <si>
+    <t>db720.dbo.nh_tg_baalut_iria</t>
+  </si>
+  <si>
+    <t>ATTRIBUTES</t>
+  </si>
+  <si>
+    <t>HEB_NAME</t>
+  </si>
+  <si>
+    <t>מגרשים</t>
+  </si>
+  <si>
+    <t>גושים</t>
+  </si>
+  <si>
+    <t>חלקות</t>
+  </si>
+  <si>
+    <t>כתובות</t>
+  </si>
+  <si>
+    <t>בעלות עירייה</t>
+  </si>
+  <si>
+    <t>רעש 45מ</t>
+  </si>
+  <si>
+    <t>layer</t>
+  </si>
+  <si>
+    <t>ms_gush,k_status_hesder ,ms_chelka</t>
+  </si>
+  <si>
+    <t>chelkot</t>
+  </si>
+  <si>
+    <t>db720.DBO.yk_tg_migrashim</t>
+  </si>
+  <si>
+    <t>yeudei_karka</t>
+  </si>
+  <si>
+    <t>k_yeud_rashi=1005</t>
+  </si>
+  <si>
+    <t>מגרשים עם ייעוד ציבורי</t>
+  </si>
+  <si>
+    <t>db720.dbo.kd_tg_gushim</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>db720.dbo.es_tg_contaminated_site</t>
+  </si>
+  <si>
+    <t>contaminated_site</t>
+  </si>
+  <si>
+    <t>קרקע מזוהמת</t>
+  </si>
+  <si>
+    <t>db720.dbo.ta_tg_flooding_area</t>
+  </si>
+  <si>
+    <t>flooding_area</t>
+  </si>
+  <si>
+    <t>אזורי הצפה</t>
+  </si>
+  <si>
+    <t>db720.dbo.ta_tg_flooding_ayalon</t>
+  </si>
+  <si>
+    <t>flooding_ayalon</t>
+  </si>
+  <si>
+    <t>אגן איילון</t>
+  </si>
+  <si>
+    <t>db720.dbo.ta_tg_radius_magen_mechonim</t>
+  </si>
+  <si>
+    <t>magen_mechonim</t>
+  </si>
+  <si>
+    <t>רדיוס מגן בארות מים</t>
+  </si>
+  <si>
+    <t>db720.dbo.es_tg_tahanot_delek_buffers</t>
+  </si>
+  <si>
+    <t>delek_buffers</t>
+  </si>
+  <si>
+    <t>רדיוס מגן תשתיות דלק</t>
+  </si>
+  <si>
+    <t>db720.dbo.kl_tg_ginot_klavim</t>
+  </si>
+  <si>
+    <t>ginot_klavim</t>
+  </si>
+  <si>
+    <t>גינות כלבים</t>
+  </si>
+  <si>
+    <t>db720.dbo.kl_tg_ginot_kehilatiyot</t>
+  </si>
+  <si>
+    <t>kehilatiyot</t>
+  </si>
+  <si>
+    <t>גינות קהילתיות</t>
+  </si>
+  <si>
+    <t>db720.dbo.kl_tg_ezor_atikot</t>
+  </si>
+  <si>
+    <t>ezor_atikot</t>
+  </si>
+  <si>
+    <t>תכנון</t>
+  </si>
+  <si>
+    <t>עתיקות</t>
+  </si>
+  <si>
+    <t>db720.dbo.kl_tg_ir_levana</t>
+  </si>
+  <si>
+    <t>ir_levana</t>
+  </si>
+  <si>
+    <t>עיר לבנה</t>
+  </si>
+  <si>
+    <t>db720.dbo.kl_tg_mivnim_leshimur_brutalism</t>
+  </si>
+  <si>
+    <t>mivnim_leshimur_brutalism</t>
+  </si>
+  <si>
+    <t>מבנים ברוטליזם לשימור</t>
+  </si>
+  <si>
+    <t>db720.dbo.kl_tg_mivne_mesukan</t>
+  </si>
+  <si>
+    <t>mivne_mesukan</t>
+  </si>
+  <si>
+    <t>מבנה מסוכן</t>
+  </si>
+  <si>
+    <t>db720.dbo.ta_tg_biuv_kav</t>
+  </si>
+  <si>
+    <t>biuv_kav</t>
+  </si>
+  <si>
     <t>תשתיות</t>
   </si>
   <si>
-    <t>תכנון</t>
-  </si>
-  <si>
-    <t>db720.dbo.KD_TG_CHELKOT_BAALUT</t>
-  </si>
-  <si>
-    <t>kehilatiyot</t>
-  </si>
-  <si>
-    <t>migrashim</t>
-  </si>
-  <si>
-    <t>raash_45m</t>
-  </si>
-  <si>
-    <t>biuv_kav</t>
+    <t>קו ביוב</t>
+  </si>
+  <si>
+    <t>db720.dbo.kl_tg_tree_all</t>
   </si>
   <si>
     <t>tree_all</t>
   </si>
   <si>
-    <t>gushim</t>
-  </si>
-  <si>
-    <t>ktovot</t>
-  </si>
-  <si>
-    <t>baalut_iria</t>
-  </si>
-  <si>
-    <t>contaminated_site</t>
-  </si>
-  <si>
-    <t>ezor_atikot</t>
-  </si>
-  <si>
-    <t>flooding_area</t>
-  </si>
-  <si>
-    <t>flooding_ayalon</t>
-  </si>
-  <si>
-    <t>magen_mechonim</t>
-  </si>
-  <si>
-    <t>delek_buffers</t>
-  </si>
-  <si>
-    <t>ir_levana</t>
-  </si>
-  <si>
-    <t>mivnim_leshimur_brutalism</t>
-  </si>
-  <si>
-    <t>mivne_mesukan</t>
+    <t>עצים</t>
+  </si>
+  <si>
+    <t>db720.dbo.ta_tg_hashmal_ili_ln</t>
   </si>
   <si>
     <t>hashmal_ili_ln</t>
   </si>
   <si>
+    <t>קו חשמל עילי</t>
+  </si>
+  <si>
+    <t>db720.dbo.ta_tg_hashmal_tat_karkai_ln</t>
+  </si>
+  <si>
     <t>hashmal_tat_karkai_ln</t>
   </si>
   <si>
+    <t>קו חשמל תתק</t>
+  </si>
+  <si>
+    <t>db720.dbo.kl_tg_trees_achzaka</t>
+  </si>
+  <si>
     <t>trees_achzaka</t>
   </si>
   <si>
-    <t>ginot_klavim</t>
-  </si>
-  <si>
-    <t>db720.dbo.es_tg_raash_45m</t>
-  </si>
-  <si>
-    <t>db720.dbo.ta_tg_biuv_kav</t>
-  </si>
-  <si>
-    <t>db720.dbo.kd_tg_chelkot</t>
-  </si>
-  <si>
-    <t>db720.dbo.kt_tg_ktovot</t>
-  </si>
-  <si>
-    <t>db720.dbo.nh_tg_baalut_iria</t>
-  </si>
-  <si>
-    <t>db720.dbo.es_tg_contaminated_site</t>
-  </si>
-  <si>
-    <t>db720.dbo.kl_tg_ezor_atikot</t>
-  </si>
-  <si>
-    <t>db720.dbo.ta_tg_flooding_area</t>
-  </si>
-  <si>
-    <t>db720.dbo.ta_tg_flooding_ayalon</t>
-  </si>
-  <si>
-    <t>db720.dbo.ta_tg_radius_magen_mechonim</t>
-  </si>
-  <si>
-    <t>db720.dbo.es_tg_tahanot_delek_buffers</t>
-  </si>
-  <si>
-    <t>db720.dbo.kl_tg_ir_levana</t>
-  </si>
-  <si>
-    <t>db720.dbo.kl_tg_mivnim_leshimur_brutalism</t>
-  </si>
-  <si>
-    <t>db720.dbo.kl_tg_mivne_mesukan</t>
-  </si>
-  <si>
-    <t>db720.dbo.ta_tg_hashmal_ili_ln</t>
-  </si>
-  <si>
-    <t>db720.dbo.ta_tg_hashmal_tat_karkai_ln</t>
-  </si>
-  <si>
-    <t>db720.dbo.kl_tg_trees_achzaka</t>
-  </si>
-  <si>
-    <t>db720.dbo.kl_tg_ginot_klavim</t>
-  </si>
-  <si>
-    <t>db720.dbo.kl_tg_ginot_kehilatiyot</t>
-  </si>
-  <si>
-    <t>ATTRIBUTES</t>
-  </si>
-  <si>
-    <t>HEB_NAME</t>
-  </si>
-  <si>
-    <t>מגרשים</t>
-  </si>
-  <si>
-    <t>גושים</t>
-  </si>
-  <si>
-    <t>חלקות</t>
-  </si>
-  <si>
-    <t>כתובות</t>
-  </si>
-  <si>
-    <t>בעלות עירייה</t>
-  </si>
-  <si>
-    <t>רעש 45מ</t>
-  </si>
-  <si>
-    <t>קרקע מזוהמת</t>
-  </si>
-  <si>
-    <t>אזורי הצפה</t>
-  </si>
-  <si>
-    <t>אגן איילון</t>
-  </si>
-  <si>
-    <t>רדיוס מגן בארות מים</t>
-  </si>
-  <si>
-    <t>רדיוס מגן תשתיות דלק</t>
-  </si>
-  <si>
-    <t>גינות כלבים</t>
-  </si>
-  <si>
-    <t>גינות קהילתיות</t>
-  </si>
-  <si>
-    <t>עתיקות</t>
-  </si>
-  <si>
-    <t>עיר לבנה</t>
-  </si>
-  <si>
-    <t>מבנים ברוטליזם לשימור</t>
-  </si>
-  <si>
-    <t>מבנה מסוכן</t>
-  </si>
-  <si>
-    <t>קו ביוב</t>
-  </si>
-  <si>
-    <t>עצים</t>
-  </si>
-  <si>
-    <t>קו חשמל עילי</t>
-  </si>
-  <si>
-    <t>קו חשמל תתק</t>
-  </si>
-  <si>
     <t>עצים2</t>
   </si>
   <si>
-    <t>layer</t>
-  </si>
-  <si>
-    <t>ms_gush,k_status_hesder ,ms_chelka</t>
-  </si>
-  <si>
-    <t>chelkot</t>
-  </si>
-  <si>
-    <t>db720.DBO.yk_tg_migrashim</t>
-  </si>
-  <si>
-    <t>yeudei_karka</t>
-  </si>
-  <si>
-    <t>k_yeud_rashi=1005</t>
-  </si>
-  <si>
-    <t>מגרשים עם ייעוד ציבורי</t>
-  </si>
-  <si>
-    <t>db720.dbo.kd_tg_gushim</t>
-  </si>
-  <si>
-    <t>db720.dbo.kl_tg_tree_all</t>
-  </si>
-  <si>
-    <t>None</t>
+    <t>DBO.yk_tg_migrashim</t>
+  </si>
+  <si>
+    <t>dbo.KD_TG_CHELKOT_BAALUT</t>
+  </si>
+  <si>
+    <t>dbo.kd_tg_gushim</t>
+  </si>
+  <si>
+    <t>dbo.kd_tg_chelkot</t>
+  </si>
+  <si>
+    <t>dbo.kt_tg_ktovot</t>
+  </si>
+  <si>
+    <t>dbo.nh_tg_baalut_iria</t>
+  </si>
+  <si>
+    <t>dbo.es_tg_raash_45m</t>
+  </si>
+  <si>
+    <t>dbo.es_tg_contaminated_site</t>
+  </si>
+  <si>
+    <t>dbo.ta_tg_flooding_area</t>
+  </si>
+  <si>
+    <t>dbo.ta_tg_flooding_ayalon</t>
+  </si>
+  <si>
+    <t>dbo.ta_tg_radius_magen_mechonim</t>
+  </si>
+  <si>
+    <t>dbo.es_tg_tahanot_delek_buffers</t>
+  </si>
+  <si>
+    <t>dbo.kl_tg_ginot_klavim</t>
+  </si>
+  <si>
+    <t>dbo.kl_tg_ginot_kehilatiyot</t>
+  </si>
+  <si>
+    <t>dbo.kl_tg_ezor_atikot</t>
+  </si>
+  <si>
+    <t>dbo.kl_tg_ir_levana</t>
+  </si>
+  <si>
+    <t>dbo.kl_tg_mivnim_leshimur_brutalism</t>
+  </si>
+  <si>
+    <t>dbo.kl_tg_mivne_mesukan</t>
+  </si>
+  <si>
+    <t>dbo.ta_tg_biuv_kav</t>
+  </si>
+  <si>
+    <t>dbo.kl_tg_tree_all</t>
+  </si>
+  <si>
+    <t>dbo.ta_tg_hashmal_ili_ln</t>
+  </si>
+  <si>
+    <t>dbo.ta_tg_hashmal_tat_karkai_ln</t>
+  </si>
+  <si>
+    <t>dbo.kl_tg_trees_achzaka</t>
   </si>
 </sst>
 </file>
@@ -281,13 +350,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -359,7 +428,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -621,24 +690,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
-    <col min="4" max="4" width="37.25" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
-    <col min="7" max="7" width="21.75" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="42.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -649,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -658,18 +728,18 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -678,21 +748,24 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -701,18 +774,21 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -721,21 +797,24 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -744,18 +823,21 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -764,18 +846,21 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -784,18 +869,21 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -804,18 +892,21 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -824,18 +915,21 @@
         <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
       <c r="C10" s="5" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -844,18 +938,21 @@
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -864,18 +961,21 @@
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -884,18 +984,21 @@
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -904,18 +1007,21 @@
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -924,18 +1030,21 @@
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -944,193 +1053,223 @@
         <v>6</v>
       </c>
       <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="L18" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" t="s">
+        <v>80</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" t="s">
         <v>83</v>
       </c>
-      <c r="E16">
-        <v>100</v>
-      </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17">
-        <v>100</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18">
-        <v>100</v>
-      </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19">
-        <v>100</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20">
-        <v>100</v>
-      </c>
-      <c r="F20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21">
-        <v>100</v>
-      </c>
-      <c r="F21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22">
-        <v>100</v>
-      </c>
-      <c r="F22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23">
-        <v>100</v>
-      </c>
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24">
-        <v>100</v>
-      </c>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L24" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C28" s="5"/>
     </row>
   </sheetData>

--- a/MIGRASH_MILON.xlsx
+++ b/MIGRASH_MILON.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="112">
   <si>
     <t>PATH</t>
   </si>
@@ -96,21 +96,12 @@
     <t>רעש 45מ</t>
   </si>
   <si>
-    <t>layer</t>
-  </si>
-  <si>
-    <t>ms_gush,k_status_hesder ,ms_chelka</t>
-  </si>
-  <si>
     <t>chelkot</t>
   </si>
   <si>
     <t>db720.DBO.yk_tg_migrashim</t>
   </si>
   <si>
-    <t>yeudei_karka</t>
-  </si>
-  <si>
     <t>k_yeud_rashi=1005</t>
   </si>
   <si>
@@ -340,6 +331,30 @@
   </si>
   <si>
     <t>dbo.kl_tg_trees_achzaka</t>
+  </si>
+  <si>
+    <t>migrashim_humim</t>
+  </si>
+  <si>
+    <t>JOIN_FID,TARGET_FID,Distance,Join_Count</t>
+  </si>
+  <si>
+    <t>JOIN_FID,TARGET_FID,Distance,Join_Count,oid_migrash,ms_migrash,k_yeud_rashi</t>
+  </si>
+  <si>
+    <t>JOIN_FID,TARGET_FID,Distance,Join_Count,ms_gush,ms_chelka</t>
+  </si>
+  <si>
+    <t>JOIN_FID,TARGET_FID,Distance,Join_Count,ms_gush</t>
+  </si>
+  <si>
+    <t>JOIN_FID,TARGET_FID,Distance,Join_Count,ms_gush,k_status_hesder,ms_chelka</t>
+  </si>
+  <si>
+    <t>JOIN_FID,TARGET_FID,Distance,Join_Count,t_ktovet_melea</t>
+  </si>
+  <si>
+    <t>JOIN_FID,TARGET_FID,Distance,Join_Count,ms_shetach_rashum</t>
   </si>
 </sst>
 </file>
@@ -401,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -410,6 +425,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,15 +709,15 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="59" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
@@ -733,13 +749,16 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -748,27 +767,27 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -782,16 +801,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -799,22 +821,23 @@
       <c r="G4" t="s">
         <v>20</v>
       </c>
+      <c r="J4" s="6"/>
       <c r="L4" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -831,13 +854,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -854,13 +880,16 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -877,13 +906,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -900,13 +932,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>105</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -915,21 +950,24 @@
         <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -938,21 +976,24 @@
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>105</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -961,21 +1002,24 @@
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>105</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -984,21 +1028,24 @@
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>105</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -1007,21 +1054,24 @@
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -1030,21 +1080,24 @@
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>105</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -1053,217 +1106,244 @@
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>105</v>
       </c>
       <c r="E16">
         <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>105</v>
       </c>
       <c r="E17">
         <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>105</v>
       </c>
       <c r="E18">
         <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>105</v>
       </c>
       <c r="E19">
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>105</v>
       </c>
       <c r="E20">
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>105</v>
       </c>
       <c r="E21">
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>105</v>
       </c>
       <c r="E22">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>105</v>
       </c>
       <c r="E23">
         <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>105</v>
       </c>
       <c r="E24">
         <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">

--- a/MIGRASH_MILON.xlsx
+++ b/MIGRASH_MILON.xlsx
@@ -336,25 +336,25 @@
     <t>migrashim_humim</t>
   </si>
   <si>
-    <t>JOIN_FID,TARGET_FID,Distance,Join_Count</t>
-  </si>
-  <si>
-    <t>JOIN_FID,TARGET_FID,Distance,Join_Count,oid_migrash,ms_migrash,k_yeud_rashi</t>
-  </si>
-  <si>
-    <t>JOIN_FID,TARGET_FID,Distance,Join_Count,ms_gush,ms_chelka</t>
-  </si>
-  <si>
-    <t>JOIN_FID,TARGET_FID,Distance,Join_Count,ms_gush</t>
-  </si>
-  <si>
-    <t>JOIN_FID,TARGET_FID,Distance,Join_Count,ms_gush,k_status_hesder,ms_chelka</t>
-  </si>
-  <si>
-    <t>JOIN_FID,TARGET_FID,Distance,Join_Count,t_ktovet_melea</t>
-  </si>
-  <si>
-    <t>JOIN_FID,TARGET_FID,Distance,Join_Count,ms_shetach_rashum</t>
+    <t>JOIN_FID,TARGET_FID,Distance,oid_migrash,ms_migrash,k_yeud_rashi</t>
+  </si>
+  <si>
+    <t>JOIN_FID,TARGET_FID,Distance,ms_gush,ms_chelka</t>
+  </si>
+  <si>
+    <t>JOIN_FID,TARGET_FID,Distance,ms_gush</t>
+  </si>
+  <si>
+    <t>JOIN_FID,TARGET_FID,Distance,ms_gush,k_status_hesder,ms_chelka</t>
+  </si>
+  <si>
+    <t>JOIN_FID,TARGET_FID,Distance,t_ktovet_melea</t>
+  </si>
+  <si>
+    <t>JOIN_FID,TARGET_FID,Distance,ms_shetach_rashum</t>
+  </si>
+  <si>
+    <t>JOIN_FID,TARGET_FID,Distance</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +758,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -784,7 +784,7 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3">
         <v>200</v>
@@ -810,7 +810,7 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4">
         <v>300</v>
@@ -837,7 +837,7 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -863,7 +863,7 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -889,7 +889,7 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -915,7 +915,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -941,7 +941,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -967,7 +967,7 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -993,7 +993,7 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1019,7 +1019,7 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -1045,7 +1045,7 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -1071,7 +1071,7 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -1097,7 +1097,7 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -1123,7 +1123,7 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -1149,7 +1149,7 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -1175,7 +1175,7 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -1201,7 +1201,7 @@
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -1227,7 +1227,7 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -1253,7 +1253,7 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -1279,7 +1279,7 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E22">
         <v>300</v>
@@ -1305,7 +1305,7 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E23">
         <v>100</v>
@@ -1331,7 +1331,7 @@
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E24">
         <v>100</v>

--- a/MIGRASH_MILON.xlsx
+++ b/MIGRASH_MILON.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="layers" sheetId="1" r:id="rId1"/>
@@ -336,25 +336,25 @@
     <t>migrashim_humim</t>
   </si>
   <si>
-    <t>JOIN_FID,TARGET_FID,Distance,oid_migrash,ms_migrash,k_yeud_rashi</t>
-  </si>
-  <si>
-    <t>JOIN_FID,TARGET_FID,Distance,ms_gush,ms_chelka</t>
-  </si>
-  <si>
-    <t>JOIN_FID,TARGET_FID,Distance,ms_gush</t>
-  </si>
-  <si>
-    <t>JOIN_FID,TARGET_FID,Distance,ms_gush,k_status_hesder,ms_chelka</t>
-  </si>
-  <si>
-    <t>JOIN_FID,TARGET_FID,Distance,t_ktovet_melea</t>
-  </si>
-  <si>
     <t>JOIN_FID,TARGET_FID,Distance,ms_shetach_rashum</t>
   </si>
   <si>
     <t>JOIN_FID,TARGET_FID,Distance</t>
+  </si>
+  <si>
+    <t>st_taba,ms_migrash,id_taba,k_yeud_karka,t_yeud_karka</t>
+  </si>
+  <si>
+    <t>ms_gush,ms_chelka</t>
+  </si>
+  <si>
+    <t>ms_gush</t>
+  </si>
+  <si>
+    <t>ms_gush,k_status_hesder,ms_chelka</t>
+  </si>
+  <si>
+    <t>t_ktovet_melea</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +758,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -784,7 +784,7 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E3">
         <v>200</v>
@@ -810,7 +810,7 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E4">
         <v>300</v>
@@ -837,7 +837,7 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -863,7 +863,7 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -889,7 +889,7 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -915,7 +915,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -941,7 +941,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -967,7 +967,7 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -993,7 +993,7 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1019,7 +1019,7 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -1045,7 +1045,7 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -1071,7 +1071,7 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -1097,7 +1097,7 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -1123,7 +1123,7 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -1149,7 +1149,7 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -1175,7 +1175,7 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -1201,7 +1201,7 @@
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -1227,7 +1227,7 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -1253,7 +1253,7 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -1279,7 +1279,7 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E22">
         <v>300</v>
@@ -1305,7 +1305,7 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E23">
         <v>100</v>
@@ -1331,7 +1331,7 @@
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E24">
         <v>100</v>
